--- a/data/trans_orig/RUIDO_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/RUIDO_1-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1AB6955D-86D9-491C-B6B4-0D273958BDBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8DE151C-A422-4D2A-87DD-2FE44CD0436E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D9958DA8-5769-4DAB-8D0F-EF3DCD5D3DF3}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CD8DB7E7-64D2-4B42-B5E5-1F8BDB3A1D1A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="294">
   <si>
     <t>Población según lo que estaría dispuesta a pagar al año para que la administración pública ponga en marcha actuaciones (+++) en su municipio/ciudad (o lugar de residencia) que haga reducir la contaminación del ruido en 2023 (Tasa respuesta: 51,54%)</t>
   </si>
@@ -80,835 +80,841 @@
     <t>0,54%</t>
   </si>
   <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>50 €</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>40 €</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>35 €</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>30 €</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>25 €</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>20 €</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>15 €</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>10 €</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>5 €</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>0 €*</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,08%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>71,96%</t>
+  </si>
+  <si>
+    <t>78,57%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>73,54%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>0,03%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>0,65%</t>
   </si>
   <si>
-    <t>50 €</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>40 €</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>35 €</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>30 €</t>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>0,71%</t>
   </si>
   <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>25 €</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>20 €</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>15 €</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>10 €</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>17,34%</t>
+  </si>
+  <si>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>73,36%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,02%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
   </si>
   <si>
     <t>3,76%</t>
   </si>
   <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>5 €</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>0 €*</t>
-  </si>
-  <si>
-    <t>89,54%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>0,08%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>76,2%</t>
-  </si>
-  <si>
-    <t>72,78%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>84,38%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>81,09%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>0,02%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>73,48%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>0,04%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>73,35%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>76,15%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1323,7 +1329,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF67F96F-BAD6-4046-AD2D-C81F1270C2AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E185C63-59DD-4B87-BC4B-A45D582E32BF}">
   <dimension ref="A1:Q52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1459,7 +1465,7 @@
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1406</v>
+        <v>1325</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1474,7 +1480,7 @@
         <v>2</v>
       </c>
       <c r="N4" s="7">
-        <v>1406</v>
+        <v>1325</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
@@ -1495,16 +1501,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="7">
-        <v>1469</v>
+        <v>1445</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1519,28 +1525,28 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>1469</v>
+        <v>1445</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1561,37 +1567,37 @@
         <v>1</v>
       </c>
       <c r="I6" s="7">
-        <v>705</v>
+        <v>631</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M6" s="7">
         <v>1</v>
       </c>
       <c r="N6" s="7">
-        <v>705</v>
+        <v>631</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1621,7 +1627,7 @@
         <v>12</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
@@ -1636,37 +1642,37 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
       </c>
       <c r="D8" s="7">
-        <v>1929</v>
+        <v>1887</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8" s="7">
         <v>2</v>
       </c>
       <c r="I8" s="7">
-        <v>1027</v>
+        <v>984</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
@@ -1678,7 +1684,7 @@
         <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>2956</v>
+        <v>2871</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>35</v>
@@ -1699,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="7">
-        <v>992</v>
+        <v>961</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>39</v>
@@ -1723,13 +1729,13 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>992</v>
+        <v>961</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>41</v>
@@ -1750,250 +1756,250 @@
         <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>2807</v>
+        <v>2745</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>3116</v>
+        <v>2923</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
       </c>
       <c r="N10" s="7">
-        <v>5923</v>
+        <v>5668</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C11" s="7">
         <v>3</v>
       </c>
       <c r="D11" s="7">
-        <v>2607</v>
+        <v>2495</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
       </c>
       <c r="I11" s="7">
-        <v>1238</v>
+        <v>1169</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M11" s="7">
         <v>5</v>
       </c>
       <c r="N11" s="7">
-        <v>3845</v>
+        <v>3664</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C12" s="7">
         <v>10</v>
       </c>
       <c r="D12" s="7">
-        <v>8265</v>
+        <v>8011</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
         <v>23</v>
       </c>
       <c r="I12" s="7">
-        <v>10715</v>
+        <v>9987</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M12" s="7">
         <v>33</v>
       </c>
       <c r="N12" s="7">
-        <v>18980</v>
+        <v>17998</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C13" s="7">
         <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>10236</v>
+        <v>9319</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>32</v>
       </c>
       <c r="I13" s="7">
-        <v>23333</v>
+        <v>20305</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>45</v>
       </c>
       <c r="N13" s="7">
-        <v>33569</v>
+        <v>29625</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C14" s="7">
         <v>319</v>
       </c>
       <c r="D14" s="7">
-        <v>242383</v>
+        <v>228403</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>662</v>
       </c>
       <c r="I14" s="7">
-        <v>378854</v>
+        <v>343890</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>981</v>
       </c>
       <c r="N14" s="7">
-        <v>621238</v>
+        <v>572293</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,51 +2011,51 @@
         <v>352</v>
       </c>
       <c r="D15" s="7">
-        <v>270687</v>
+        <v>255267</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H15" s="7">
         <v>730</v>
       </c>
       <c r="I15" s="7">
-        <v>420394</v>
+        <v>381214</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M15" s="7">
         <v>1082</v>
       </c>
       <c r="N15" s="7">
-        <v>691082</v>
+        <v>636481</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2058,46 +2064,46 @@
         <v>4</v>
       </c>
       <c r="D16" s="7">
-        <v>4418</v>
+        <v>4143</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H16" s="7">
         <v>4</v>
       </c>
       <c r="I16" s="7">
-        <v>2902</v>
+        <v>2677</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M16" s="7">
         <v>8</v>
       </c>
       <c r="N16" s="7">
-        <v>7320</v>
+        <v>6820</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,103 +2115,103 @@
         <v>8</v>
       </c>
       <c r="D17" s="7">
-        <v>6802</v>
+        <v>6775</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
       </c>
       <c r="I17" s="7">
-        <v>3703</v>
+        <v>3452</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>13</v>
       </c>
       <c r="N17" s="7">
-        <v>10505</v>
+        <v>10227</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>35</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>1</v>
       </c>
       <c r="D18" s="7">
-        <v>1146</v>
+        <v>1127</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H18" s="7">
         <v>1</v>
       </c>
       <c r="I18" s="7">
-        <v>690</v>
+        <v>650</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M18" s="7">
         <v>2</v>
       </c>
       <c r="N18" s="7">
-        <v>1836</v>
+        <v>1777</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="P18" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
         <v>0</v>
@@ -2220,88 +2226,88 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>1132</v>
+        <v>1066</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>1132</v>
+        <v>1066</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C20" s="7">
         <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>8285</v>
+        <v>8160</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
       </c>
       <c r="I20" s="7">
-        <v>8115</v>
+        <v>7613</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
       </c>
       <c r="N20" s="7">
-        <v>16400</v>
+        <v>15773</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>117</v>
+        <v>51</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2313,28 +2319,28 @@
         <v>9</v>
       </c>
       <c r="D21" s="7">
-        <v>12635</v>
+        <v>13793</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H21" s="7">
         <v>7</v>
       </c>
       <c r="I21" s="7">
-        <v>5697</v>
+        <v>5375</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>122</v>
@@ -2343,16 +2349,16 @@
         <v>16</v>
       </c>
       <c r="N21" s="7">
-        <v>18332</v>
+        <v>19167</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2364,64 +2370,64 @@
         <v>16</v>
       </c>
       <c r="D22" s="7">
-        <v>21650</v>
+        <v>22483</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H22" s="7">
         <v>32</v>
       </c>
       <c r="I22" s="7">
-        <v>38744</v>
+        <v>59567</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>48</v>
       </c>
       <c r="N22" s="7">
-        <v>60393</v>
+        <v>82050</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C23" s="7">
         <v>19</v>
       </c>
       <c r="D23" s="7">
-        <v>23081</v>
+        <v>22990</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F23" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>134</v>
@@ -2430,10 +2436,10 @@
         <v>20</v>
       </c>
       <c r="I23" s="7">
-        <v>12197</v>
+        <v>11759</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>135</v>
@@ -2445,7 +2451,7 @@
         <v>39</v>
       </c>
       <c r="N23" s="7">
-        <v>35278</v>
+        <v>34749</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>137</v>
@@ -2460,13 +2466,13 @@
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C24" s="7">
         <v>53</v>
       </c>
       <c r="D24" s="7">
-        <v>66754</v>
+        <v>69947</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>140</v>
@@ -2481,7 +2487,7 @@
         <v>76</v>
       </c>
       <c r="I24" s="7">
-        <v>50046</v>
+        <v>47144</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>143</v>
@@ -2496,7 +2502,7 @@
         <v>129</v>
       </c>
       <c r="N24" s="7">
-        <v>116800</v>
+        <v>117091</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>146</v>
@@ -2511,13 +2517,13 @@
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C25" s="7">
         <v>129</v>
       </c>
       <c r="D25" s="7">
-        <v>119609</v>
+        <v>111801</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>149</v>
@@ -2532,7 +2538,7 @@
         <v>195</v>
       </c>
       <c r="I25" s="7">
-        <v>127626</v>
+        <v>116398</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>152</v>
@@ -2547,7 +2553,7 @@
         <v>324</v>
       </c>
       <c r="N25" s="7">
-        <v>247235</v>
+        <v>228199</v>
       </c>
       <c r="O25" s="7" t="s">
         <v>155</v>
@@ -2562,13 +2568,13 @@
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C26" s="7">
         <v>815</v>
       </c>
       <c r="D26" s="7">
-        <v>846574</v>
+        <v>813869</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>158</v>
@@ -2583,7 +2589,7 @@
         <v>1132</v>
       </c>
       <c r="I26" s="7">
-        <v>925506</v>
+        <v>946313</v>
       </c>
       <c r="J26" s="7" t="s">
         <v>161</v>
@@ -2598,7 +2604,7 @@
         <v>1947</v>
       </c>
       <c r="N26" s="7">
-        <v>1772080</v>
+        <v>1760182</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>164</v>
@@ -2619,46 +2625,46 @@
         <v>1062</v>
       </c>
       <c r="D27" s="7">
-        <v>1110954</v>
+        <v>1075088</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H27" s="7">
         <v>1486</v>
       </c>
       <c r="I27" s="7">
-        <v>1176357</v>
+        <v>1202013</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M27" s="7">
         <v>2548</v>
       </c>
       <c r="N27" s="7">
-        <v>2287311</v>
+        <v>2277101</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2678,13 @@
         <v>6</v>
       </c>
       <c r="D28" s="7">
-        <v>4967</v>
+        <v>4924</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>124</v>
+        <v>64</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>168</v>
@@ -2687,13 +2693,13 @@
         <v>4</v>
       </c>
       <c r="I28" s="7">
-        <v>3527</v>
+        <v>3357</v>
       </c>
       <c r="J28" s="7" t="s">
         <v>169</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="L28" s="7" t="s">
         <v>170</v>
@@ -2702,16 +2708,16 @@
         <v>10</v>
       </c>
       <c r="N28" s="7">
-        <v>8494</v>
+        <v>8281</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,103 +2729,103 @@
         <v>5</v>
       </c>
       <c r="D29" s="7">
-        <v>4824</v>
+        <v>4741</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H29" s="7">
         <v>9</v>
       </c>
       <c r="I29" s="7">
-        <v>6145</v>
+        <v>5833</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>14</v>
       </c>
       <c r="N29" s="7">
-        <v>10969</v>
+        <v>10573</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="7">
         <v>2</v>
       </c>
       <c r="D30" s="7">
-        <v>1346</v>
+        <v>1329</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>71</v>
+        <v>179</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
       </c>
       <c r="I30" s="7">
-        <v>1373</v>
+        <v>1723</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>91</v>
+        <v>180</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M30" s="7">
         <v>3</v>
       </c>
       <c r="N30" s="7">
-        <v>2719</v>
+        <v>3053</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
         <v>0</v>
@@ -2834,55 +2840,55 @@
         <v>12</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H31" s="7">
         <v>2</v>
       </c>
       <c r="I31" s="7">
-        <v>1490</v>
+        <v>1416</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="K31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M31" s="7">
         <v>2</v>
       </c>
       <c r="N31" s="7">
-        <v>1490</v>
+        <v>1416</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>184</v>
+        <v>97</v>
       </c>
       <c r="P31" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7">
         <v>4</v>
       </c>
       <c r="D32" s="7">
-        <v>5070</v>
+        <v>4649</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>187</v>
+        <v>94</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>188</v>
@@ -2891,13 +2897,13 @@
         <v>9</v>
       </c>
       <c r="I32" s="7">
-        <v>6061</v>
+        <v>5839</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>190</v>
@@ -2906,16 +2912,16 @@
         <v>13</v>
       </c>
       <c r="N32" s="7">
-        <v>11132</v>
+        <v>10488</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>64</v>
+        <v>191</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,46 +2933,46 @@
         <v>5</v>
       </c>
       <c r="D33" s="7">
-        <v>5507</v>
+        <v>5343</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>96</v>
+        <v>194</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H33" s="7">
         <v>7</v>
       </c>
       <c r="I33" s="7">
-        <v>5251</v>
+        <v>4836</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M33" s="7">
         <v>12</v>
       </c>
       <c r="N33" s="7">
-        <v>10758</v>
+        <v>10179</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>47</v>
+        <v>199</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>54</v>
+        <v>201</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2978,250 +2984,250 @@
         <v>8</v>
       </c>
       <c r="D34" s="7">
-        <v>5650</v>
+        <v>5694</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>113</v>
+        <v>203</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>199</v>
+        <v>73</v>
       </c>
       <c r="H34" s="7">
         <v>13</v>
       </c>
       <c r="I34" s="7">
-        <v>12086</v>
+        <v>11719</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M34" s="7">
         <v>21</v>
       </c>
       <c r="N34" s="7">
-        <v>17736</v>
+        <v>17413</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C35" s="7">
         <v>9</v>
       </c>
       <c r="D35" s="7">
-        <v>7491</v>
+        <v>7695</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="H35" s="7">
         <v>8</v>
       </c>
       <c r="I35" s="7">
-        <v>4316</v>
+        <v>4077</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M35" s="7">
         <v>17</v>
       </c>
       <c r="N35" s="7">
-        <v>11807</v>
+        <v>11772</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>209</v>
+        <v>184</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C36" s="7">
         <v>15</v>
       </c>
       <c r="D36" s="7">
-        <v>15261</v>
+        <v>14688</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H36" s="7">
         <v>33</v>
       </c>
       <c r="I36" s="7">
-        <v>17356</v>
+        <v>16537</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M36" s="7">
         <v>48</v>
       </c>
       <c r="N36" s="7">
-        <v>32617</v>
+        <v>31225</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C37" s="7">
         <v>85</v>
       </c>
       <c r="D37" s="7">
-        <v>74511</v>
+        <v>67821</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H37" s="7">
         <v>86</v>
       </c>
       <c r="I37" s="7">
-        <v>48929</v>
+        <v>44268</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M37" s="7">
         <v>171</v>
       </c>
       <c r="N37" s="7">
-        <v>123441</v>
+        <v>112089</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C38" s="7">
         <v>208</v>
       </c>
       <c r="D38" s="7">
-        <v>210298</v>
+        <v>206930</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H38" s="7">
         <v>351</v>
       </c>
       <c r="I38" s="7">
-        <v>240050</v>
+        <v>223041</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="M38" s="7">
         <v>559</v>
       </c>
       <c r="N38" s="7">
-        <v>450348</v>
+        <v>429972</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,46 +3239,46 @@
         <v>347</v>
       </c>
       <c r="D39" s="7">
-        <v>334926</v>
+        <v>323814</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H39" s="7">
         <v>523</v>
       </c>
       <c r="I39" s="7">
-        <v>346585</v>
+        <v>322646</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M39" s="7">
         <v>870</v>
       </c>
       <c r="N39" s="7">
-        <v>681511</v>
+        <v>646461</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -3286,46 +3292,46 @@
         <v>10</v>
       </c>
       <c r="D40" s="7">
-        <v>9386</v>
+        <v>9066</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>238</v>
+        <v>138</v>
       </c>
       <c r="H40" s="7">
         <v>10</v>
       </c>
       <c r="I40" s="7">
-        <v>7834</v>
+        <v>7360</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>42</v>
+        <v>240</v>
       </c>
       <c r="M40" s="7">
         <v>20</v>
       </c>
       <c r="N40" s="7">
-        <v>17220</v>
+        <v>16426</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>239</v>
+        <v>135</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>111</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -3337,103 +3343,103 @@
         <v>14</v>
       </c>
       <c r="D41" s="7">
-        <v>13094</v>
+        <v>12961</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>115</v>
+        <v>243</v>
       </c>
       <c r="H41" s="7">
         <v>14</v>
       </c>
       <c r="I41" s="7">
-        <v>9848</v>
+        <v>9284</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="M41" s="7">
         <v>28</v>
       </c>
       <c r="N41" s="7">
-        <v>22942</v>
+        <v>22245</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>241</v>
+        <v>178</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C42" s="7">
         <v>3</v>
       </c>
       <c r="D42" s="7">
-        <v>2492</v>
+        <v>2456</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="H42" s="7">
         <v>3</v>
       </c>
       <c r="I42" s="7">
-        <v>2767</v>
+        <v>3004</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>104</v>
+        <v>248</v>
       </c>
       <c r="M42" s="7">
         <v>6</v>
       </c>
       <c r="N42" s="7">
-        <v>5260</v>
+        <v>5460</v>
       </c>
       <c r="O42" s="7" t="s">
         <v>41</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>97</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C43" s="7">
         <v>0</v>
@@ -3454,82 +3460,82 @@
         <v>3</v>
       </c>
       <c r="I43" s="7">
-        <v>2622</v>
+        <v>2482</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>244</v>
+        <v>183</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>106</v>
+        <v>178</v>
       </c>
       <c r="M43" s="7">
         <v>3</v>
       </c>
       <c r="N43" s="7">
-        <v>2622</v>
+        <v>2482</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>181</v>
+        <v>245</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>121</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C44" s="7">
         <v>14</v>
       </c>
       <c r="D44" s="7">
-        <v>15284</v>
+        <v>14696</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>245</v>
+        <v>50</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>239</v>
+        <v>182</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="H44" s="7">
         <v>24</v>
       </c>
       <c r="I44" s="7">
-        <v>15204</v>
+        <v>14436</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>247</v>
+        <v>114</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>101</v>
+        <v>249</v>
       </c>
       <c r="M44" s="7">
         <v>38</v>
       </c>
       <c r="N44" s="7">
-        <v>30488</v>
+        <v>29132</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>119</v>
+        <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,46 +3547,46 @@
         <v>15</v>
       </c>
       <c r="D45" s="7">
-        <v>19133</v>
+        <v>20097</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>118</v>
+        <v>251</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="H45" s="7">
         <v>14</v>
       </c>
       <c r="I45" s="7">
-        <v>10949</v>
+        <v>10211</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>250</v>
+        <v>21</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M45" s="7">
         <v>29</v>
       </c>
       <c r="N45" s="7">
-        <v>30082</v>
+        <v>30308</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>34</v>
+        <v>254</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,130 +3598,130 @@
         <v>27</v>
       </c>
       <c r="D46" s="7">
-        <v>30106</v>
+        <v>30922</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="H46" s="7">
         <v>51</v>
       </c>
       <c r="I46" s="7">
-        <v>53946</v>
+        <v>74209</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M46" s="7">
         <v>78</v>
       </c>
       <c r="N46" s="7">
-        <v>84053</v>
+        <v>105131</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C47" s="7">
         <v>31</v>
       </c>
       <c r="D47" s="7">
-        <v>33179</v>
+        <v>33180</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>128</v>
+        <v>263</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="H47" s="7">
         <v>30</v>
       </c>
       <c r="I47" s="7">
-        <v>17751</v>
+        <v>17005</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>263</v>
+        <v>50</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>100</v>
+        <v>185</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M47" s="7">
         <v>61</v>
       </c>
       <c r="N47" s="7">
-        <v>50930</v>
+        <v>50184</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>266</v>
+        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C48" s="7">
         <v>78</v>
       </c>
       <c r="D48" s="7">
-        <v>90281</v>
+        <v>92646</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H48" s="7">
         <v>132</v>
       </c>
       <c r="I48" s="7">
-        <v>78117</v>
+        <v>73667</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>68</v>
+        <v>195</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>270</v>
+        <v>177</v>
       </c>
       <c r="L48" s="7" t="s">
         <v>271</v>
@@ -3724,118 +3730,118 @@
         <v>210</v>
       </c>
       <c r="N48" s="7">
-        <v>168398</v>
+        <v>166314</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>257</v>
+        <v>272</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>193</v>
+        <v>273</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="C49" s="7">
         <v>227</v>
       </c>
       <c r="D49" s="7">
-        <v>204356</v>
+        <v>188942</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="H49" s="7">
         <v>313</v>
       </c>
       <c r="I49" s="7">
-        <v>199888</v>
+        <v>180971</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="M49" s="7">
         <v>540</v>
       </c>
       <c r="N49" s="7">
-        <v>404244</v>
+        <v>369913</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C50" s="7">
         <v>1342</v>
       </c>
       <c r="D50" s="7">
-        <v>1299256</v>
+        <v>1249203</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H50" s="7">
         <v>2145</v>
       </c>
       <c r="I50" s="7">
-        <v>1544410</v>
+        <v>1513243</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M50" s="7">
         <v>3487</v>
       </c>
       <c r="N50" s="7">
-        <v>2843666</v>
+        <v>2762446</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -3847,51 +3853,51 @@
         <v>1761</v>
       </c>
       <c r="D51" s="7">
-        <v>1716568</v>
+        <v>1654169</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H51" s="7">
         <v>2739</v>
       </c>
       <c r="I51" s="7">
-        <v>1943336</v>
+        <v>1905873</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M51" s="7">
         <v>4500</v>
       </c>
       <c r="N51" s="7">
-        <v>3659904</v>
+        <v>3560042</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
